--- a/study01/report/correlation/effective-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/study01/report/correlation/effective-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="80">
   <si>
     <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
   </si>
@@ -7417,7 +7417,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>-0.31314528933882774</v>
+        <v>-0.34579653946600675</v>
       </c>
     </row>
     <row r="7">
@@ -7425,10 +7425,10 @@
         <v>54</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>-0.31314528933882774</v>
+        <v>-0.34579653946600675</v>
       </c>
       <c r="C7" t="n" s="312">
-        <v>0.9999999999999999</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -7463,7 +7463,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>-1.6153352605805222</v>
+        <v>-1.8426571003165402</v>
       </c>
     </row>
     <row r="13">
@@ -7471,10 +7471,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>-1.6153352605805222</v>
-      </c>
-      <c r="C13" t="n" s="332">
-        <v>3.287649480356625E8</v>
+        <v>-1.8426571003165402</v>
+      </c>
+      <c r="C13" t="e" s="332">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -7509,7 +7509,7 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.11930949602744716</v>
+        <v>0.0772694659831238</v>
       </c>
     </row>
     <row r="19">
@@ -7517,10 +7517,10 @@
         <v>54</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.11930949602744716</v>
+        <v>0.0772694659831238</v>
       </c>
       <c r="C19" t="n" s="352">
-        <v>2.3152321882724186E-189</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="20">
@@ -7558,16 +7558,16 @@
         <v>55</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.6247202627844589</v>
+        <v>-0.6415111231952993</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>-0.31314528933882774</v>
+        <v>-0.34579653946600675</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.0844502480355882</v>
+        <v>0.0393941082250077</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.11930949602744716</v>
+        <v>0.0772694659831238</v>
       </c>
     </row>
     <row r="25">
@@ -7723,7 +7723,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="393">
-        <v>0.1736163319851855</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="B45" t="n" s="394">
         <v>1.4951617995718107</v>
@@ -7731,79 +7731,82 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="393">
-        <v>-0.024963847923433036</v>
+        <v>0.1736163319851855</v>
       </c>
       <c r="B46" t="n" s="394">
-        <v>1.9117264102869815</v>
+        <v>1.4951617995718107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="393">
-        <v>0.16036616228342887</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="B47" t="n" s="394">
-        <v>-0.2748557234267931</v>
+        <v>1.9117264102869815</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="393">
-        <v>0.8241600424703993</v>
+        <v>0.16036616228342887</v>
       </c>
       <c r="B48" t="n" s="394">
-        <v>-1.4355957758372622</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="393">
-        <v>0.34235911521372075</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B49" t="n" s="394">
-        <v>0.6258755079433425</v>
+        <v>-1.4355957758372622</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="393">
-        <v>0.3359920405213156</v>
+        <v>0.34235911521372075</v>
       </c>
       <c r="B50" t="n" s="394">
-        <v>-1.3261001130049008</v>
+        <v>0.6258755079433425</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="393">
-        <v>0.45629679199508744</v>
+        <v>0.3359920405213156</v>
       </c>
       <c r="B51" t="n" s="394">
-        <v>-0.2748557234267931</v>
+        <v>-1.3261001130049008</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="393">
-        <v>0.5860505124924433</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="B52" t="n" s="394">
-        <v>1.4951617995718107</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="393">
-        <v>0.2994892197097739</v>
+        <v>0.5860505124924433</v>
       </c>
       <c r="B53" t="n" s="394">
-        <v>0.6258755079433425</v>
+        <v>1.4951617995718107</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="393">
+        <v>0.2994892197097739</v>
+      </c>
+      <c r="B54" t="n" s="394">
+        <v>0.6258755079433425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="393">
         <v>0.8546964096694867</v>
       </c>
-      <c r="B54" t="n" s="394">
+      <c r="B55" t="n" s="394">
         <v>-1.2095717428674873</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -7812,204 +7815,183 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="398">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="398">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s" s="412">
+    <row r="59">
+      <c r="A59" t="s" s="412">
         <v>15</v>
       </c>
-      <c r="B58" t="s" s="412">
+      <c r="B59" t="s" s="412">
         <v>16</v>
       </c>
-      <c r="C58" t="s" s="412">
+      <c r="C59" t="s" s="412">
         <v>17</v>
       </c>
-      <c r="D58" t="s" s="412">
+      <c r="D59" t="s" s="412">
         <v>18</v>
       </c>
-      <c r="E58" t="s" s="412">
+      <c r="E59" t="s" s="412">
         <v>19</v>
       </c>
-      <c r="F58" t="s" s="412">
+      <c r="F59" t="s" s="412">
         <v>20</v>
       </c>
-      <c r="G58" t="s" s="412">
+      <c r="G59" t="s" s="412">
         <v>3</v>
       </c>
-      <c r="H58" t="s" s="412">
+      <c r="H59" t="s" s="412">
         <v>54</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="413">
-        <v>10169.0</v>
-      </c>
-      <c r="B59" t="n" s="414">
-        <v>1.0377538E7</v>
-      </c>
-      <c r="C59" t="s" s="415">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s" s="416">
-        <v>42</v>
-      </c>
-      <c r="E59" t="s" s="417">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s" s="418">
-        <v>51</v>
-      </c>
-      <c r="G59" t="n" s="419">
-        <v>0.3438762335287266</v>
-      </c>
-      <c r="H59" t="n" s="420">
-        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="413">
-        <v>10170.0</v>
+        <v>10169.0</v>
       </c>
       <c r="B60" t="n" s="414">
-        <v>1.0260351E7</v>
+        <v>1.0377538E7</v>
       </c>
       <c r="C60" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D60" t="s" s="416">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E60" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G60" t="n" s="419">
-        <v>0.44355069885067455</v>
+        <v>0.3438762335287266</v>
       </c>
       <c r="H60" t="n" s="420">
-        <v>0.3390917056505436</v>
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="413">
-        <v>10174.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B61" t="n" s="414">
-        <v>1.0276852E7</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C61" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D61" t="s" s="416">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G61" t="n" s="419">
-        <v>0.35861364877545043</v>
+        <v>0.44355069885067455</v>
       </c>
       <c r="H61" t="n" s="420">
-        <v>0.04532479257032093</v>
+        <v>0.3390917056505436</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="413">
-        <v>10175.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B62" t="n" s="414">
-        <v>1.03107E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C62" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D62" t="s" s="416">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s" s="417">
         <v>30</v>
       </c>
       <c r="F62" t="s" s="418">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G62" t="n" s="419">
-        <v>-0.024963847923433036</v>
+        <v>0.35861364877545043</v>
       </c>
       <c r="H62" t="n" s="420">
-        <v>0.773547756634461</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="413">
-        <v>10176.0</v>
+        <v>10175.0</v>
       </c>
       <c r="B63" t="n" s="414">
-        <v>1.0276949E7</v>
+        <v>1.03107E7</v>
       </c>
       <c r="C63" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D63" t="s" s="416">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s" s="418">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G63" t="n" s="419">
-        <v>0.5310873221279265</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="H63" t="n" s="420">
-        <v>-0.621765728385078</v>
+        <v>0.773547756634461</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="413">
-        <v>10178.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B64" t="n" s="414">
-        <v>8656201.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C64" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D64" t="s" s="416">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s" s="417">
         <v>50</v>
       </c>
       <c r="F64" t="s" s="418">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G64" t="n" s="419">
-        <v>0.8974785237700684</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H64" t="n" s="420">
-        <v>0.19438092697207512</v>
+        <v>-0.621765728385078</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="413">
-        <v>10183.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B65" t="n" s="414">
-        <v>1.035203E7</v>
+        <v>8656201.0</v>
       </c>
       <c r="C65" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D65" t="s" s="416">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s" s="417">
         <v>50</v>
@@ -8018,154 +8000,154 @@
         <v>52</v>
       </c>
       <c r="G65" t="n" s="419">
-        <v>0.6398767900707459</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H65" t="n" s="420">
-        <v>-0.7897528725203661</v>
+        <v>0.19438092697207512</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="413">
-        <v>10184.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B66" t="n" s="414">
-        <v>1.0276675E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C66" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D66" t="s" s="416">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="418">
         <v>52</v>
       </c>
       <c r="G66" t="n" s="419">
-        <v>0.3038326457914028</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H66" t="n" s="420">
-        <v>-0.2748557234267931</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="413">
-        <v>10186.0</v>
+        <v>10184.0</v>
       </c>
       <c r="B67" t="n" s="414">
-        <v>1.0310551E7</v>
+        <v>1.0276675E7</v>
       </c>
       <c r="C67" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D67" t="s" s="416">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s" s="418">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G67" t="n" s="419">
-        <v>0.7744710186718347</v>
+        <v>0.3038326457914028</v>
       </c>
       <c r="H67" t="n" s="420">
-        <v>-0.11051255328776674</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="413">
-        <v>10189.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B68" t="n" s="414">
-        <v>9363926.0</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C68" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D68" t="s" s="416">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s" s="418">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G68" t="n" s="419">
-        <v>0.04638802440381301</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H68" t="n" s="420">
-        <v>-0.7897528725203661</v>
+        <v>-0.11051255328776674</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="413">
-        <v>10193.0</v>
+        <v>10189.0</v>
       </c>
       <c r="B69" t="n" s="414">
-        <v>1.0276762E7</v>
+        <v>9363926.0</v>
       </c>
       <c r="C69" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D69" t="s" s="416">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s" s="417">
         <v>30</v>
       </c>
       <c r="F69" t="s" s="418">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G69" t="n" s="419">
-        <v>0.4092911304004456</v>
+        <v>0.04638802440381301</v>
       </c>
       <c r="H69" t="n" s="420">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="413">
-        <v>10195.0</v>
+        <v>10193.0</v>
       </c>
       <c r="B70" t="n" s="414">
-        <v>1.0351971E7</v>
+        <v>1.0276762E7</v>
       </c>
       <c r="C70" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D70" t="s" s="416">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E70" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G70" t="n" s="419">
-        <v>0.4770354022576471</v>
+        <v>0.4092911304004456</v>
       </c>
       <c r="H70" t="n" s="420">
-        <v>0.48203349533710915</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="413">
-        <v>10196.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B71" t="n" s="414">
-        <v>1.0310655E7</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C71" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D71" t="s" s="416">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s" s="417">
         <v>50</v>
@@ -8174,24 +8156,24 @@
         <v>51</v>
       </c>
       <c r="G71" t="n" s="419">
-        <v>0.7163284176930924</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H71" t="n" s="420">
-        <v>-0.7897528725203661</v>
+        <v>0.48203349533710915</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="413">
-        <v>10197.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B72" t="n" s="414">
-        <v>1.0276661E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C72" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D72" t="s" s="416">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s" s="417">
         <v>50</v>
@@ -8200,76 +8182,76 @@
         <v>51</v>
       </c>
       <c r="G72" t="n" s="419">
-        <v>0.3397982112727087</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H72" t="n" s="420">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="413">
-        <v>10198.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B73" t="n" s="414">
-        <v>1.0310888E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C73" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D73" t="s" s="416">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s" s="417">
         <v>50</v>
       </c>
       <c r="F73" t="s" s="418">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73" t="n" s="419">
-        <v>0.7204334228506288</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H73" t="n" s="420">
-        <v>1.646504990094715</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="413">
-        <v>10199.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B74" t="n" s="414">
-        <v>1.0276737E7</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C74" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D74" t="s" s="416">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s" s="418">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G74" t="n" s="419">
-        <v>0.4773203224855433</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H74" t="n" s="420">
-        <v>-0.7897528725203661</v>
+        <v>1.646504990094715</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="413">
-        <v>10201.0</v>
+        <v>10199.0</v>
       </c>
       <c r="B75" t="n" s="414">
-        <v>1.0276928E7</v>
+        <v>1.0276737E7</v>
       </c>
       <c r="C75" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D75" t="s" s="416">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s" s="417">
         <v>30</v>
@@ -8278,50 +8260,50 @@
         <v>51</v>
       </c>
       <c r="G75" t="n" s="419">
-        <v>0.1736163319851855</v>
+        <v>0.4773203224855433</v>
       </c>
       <c r="H75" t="n" s="420">
-        <v>1.4951617995718107</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="413">
-        <v>10204.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B76" t="n" s="414">
-        <v>1.0310471E7</v>
+        <v>9795272.0</v>
       </c>
       <c r="C76" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D76" t="s" s="416">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F76" t="s" s="418">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G76" t="n" s="419">
-        <v>-0.024963847923433036</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="H76" t="n" s="420">
-        <v>1.9117264102869815</v>
+        <v>1.4951617995718107</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="413">
-        <v>10206.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B77" t="n" s="414">
-        <v>1.0310721E7</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C77" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D77" t="s" s="416">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s" s="417">
         <v>30</v>
@@ -8330,128 +8312,128 @@
         <v>51</v>
       </c>
       <c r="G77" t="n" s="419">
-        <v>0.16036616228342887</v>
+        <v>0.1736163319851855</v>
       </c>
       <c r="H77" t="n" s="420">
-        <v>-0.2748557234267931</v>
+        <v>1.4951617995718107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="413">
-        <v>10209.0</v>
+        <v>10204.0</v>
       </c>
       <c r="B78" t="n" s="414">
-        <v>1.0262669E7</v>
+        <v>1.0310471E7</v>
       </c>
       <c r="C78" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D78" t="s" s="416">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E78" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G78" t="n" s="419">
-        <v>0.8241600424703993</v>
+        <v>-0.024963847923433036</v>
       </c>
       <c r="H78" t="n" s="420">
-        <v>-1.4355957758372622</v>
+        <v>1.9117264102869815</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="413">
-        <v>10213.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B79" t="n" s="414">
-        <v>1.027704E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C79" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D79" t="s" s="416">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E79" t="s" s="417">
         <v>30</v>
       </c>
       <c r="F79" t="s" s="418">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G79" t="n" s="419">
-        <v>0.34235911521372075</v>
+        <v>0.16036616228342887</v>
       </c>
       <c r="H79" t="n" s="420">
-        <v>0.6258755079433425</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="413">
-        <v>10218.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B80" t="n" s="414">
-        <v>9842913.0</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C80" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D80" t="s" s="416">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G80" t="n" s="419">
-        <v>0.3359920405213156</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="H80" t="n" s="420">
-        <v>-1.3261001130049008</v>
+        <v>-1.4355957758372622</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="413">
-        <v>10221.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B81" t="n" s="414">
-        <v>9082496.0</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C81" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D81" t="s" s="416">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E81" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s" s="418">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G81" t="n" s="419">
-        <v>0.45629679199508744</v>
+        <v>0.34235911521372075</v>
       </c>
       <c r="H81" t="n" s="420">
-        <v>-0.2748557234267931</v>
+        <v>0.6258755079433425</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="413">
-        <v>10223.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B82" t="n" s="414">
-        <v>9795185.0</v>
+        <v>9842913.0</v>
       </c>
       <c r="C82" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D82" t="s" s="416">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s" s="417">
         <v>30</v>
@@ -8460,61 +8442,113 @@
         <v>51</v>
       </c>
       <c r="G82" t="n" s="419">
-        <v>0.5860505124924433</v>
+        <v>0.3359920405213156</v>
       </c>
       <c r="H82" t="n" s="420">
-        <v>1.4951617995718107</v>
+        <v>-1.3261001130049008</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="413">
-        <v>10232.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B83" t="n" s="414">
-        <v>1.0276974E7</v>
+        <v>9082496.0</v>
       </c>
       <c r="C83" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D83" t="s" s="416">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E83" t="s" s="417">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G83" t="n" s="419">
-        <v>0.2994892197097739</v>
+        <v>0.45629679199508744</v>
       </c>
       <c r="H83" t="n" s="420">
-        <v>0.6258755079433425</v>
+        <v>-0.2748557234267931</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="413">
-        <v>10240.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B84" t="n" s="414">
-        <v>1.0276654E7</v>
+        <v>9795185.0</v>
       </c>
       <c r="C84" t="s" s="415">
         <v>35</v>
       </c>
       <c r="D84" t="s" s="416">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s" s="417">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s" s="418">
         <v>51</v>
       </c>
       <c r="G84" t="n" s="419">
+        <v>0.5860505124924433</v>
+      </c>
+      <c r="H84" t="n" s="420">
+        <v>1.4951617995718107</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="413">
+        <v>10232.0</v>
+      </c>
+      <c r="B85" t="n" s="414">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C85" t="s" s="415">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s" s="416">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s" s="417">
+        <v>30</v>
+      </c>
+      <c r="F85" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G85" t="n" s="419">
+        <v>0.2994892197097739</v>
+      </c>
+      <c r="H85" t="n" s="420">
+        <v>0.6258755079433425</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="413">
+        <v>10240.0</v>
+      </c>
+      <c r="B86" t="n" s="414">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C86" t="s" s="415">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s" s="416">
+        <v>49</v>
+      </c>
+      <c r="E86" t="s" s="417">
+        <v>50</v>
+      </c>
+      <c r="F86" t="s" s="418">
+        <v>51</v>
+      </c>
+      <c r="G86" t="n" s="419">
         <v>0.8546964096694867</v>
       </c>
-      <c r="H84" t="n" s="420">
+      <c r="H86" t="n" s="420">
         <v>-1.2095717428674873</v>
       </c>
     </row>
@@ -10223,7 +10257,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="732">
-        <v>-0.3327500724607145</v>
+        <v>-0.4319123755863727</v>
       </c>
     </row>
     <row r="7">
@@ -10231,7 +10265,7 @@
         <v>54</v>
       </c>
       <c r="B7" t="n" s="731">
-        <v>-0.3327500724607145</v>
+        <v>-0.4319123755863727</v>
       </c>
       <c r="C7" t="n" s="732">
         <v>1.0</v>
@@ -10269,7 +10303,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="752">
-        <v>-1.115833854137487</v>
+        <v>-1.5882764816342652</v>
       </c>
     </row>
     <row r="13">
@@ -10277,7 +10311,7 @@
         <v>54</v>
       </c>
       <c r="B13" t="n" s="751">
-        <v>-1.115833854137487</v>
+        <v>-1.5882764816342652</v>
       </c>
       <c r="C13" t="e" s="752">
         <v>#DIV/0!</v>
@@ -10315,7 +10349,7 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="772">
-        <v>0.29058848944246973</v>
+        <v>0.14053110184653045</v>
       </c>
     </row>
     <row r="19">
@@ -10323,7 +10357,7 @@
         <v>54</v>
       </c>
       <c r="B19" t="n" s="771">
-        <v>0.29058848944246973</v>
+        <v>0.14053110184653045</v>
       </c>
       <c r="C19" t="n" s="772">
         <v>-0.0</v>
@@ -10364,16 +10398,16 @@
         <v>55</v>
       </c>
       <c r="B24" t="n" s="791">
-        <v>-0.7612743253712637</v>
+        <v>-0.7939544783903912</v>
       </c>
       <c r="C24" t="n" s="792">
-        <v>-0.3327500724607145</v>
+        <v>-0.4319123755863727</v>
       </c>
       <c r="D24" t="n" s="793">
-        <v>0.29807336443300153</v>
+        <v>0.15625904255183104</v>
       </c>
       <c r="E24" t="n" s="794">
-        <v>0.29058848944246973</v>
+        <v>0.14053110184653045</v>
       </c>
     </row>
     <row r="25">
@@ -10473,31 +10507,34 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="813">
-        <v>0.8241600424703993</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="B38" t="n" s="814">
-        <v>-1.4355957758372622</v>
+        <v>1.4951617995718107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="813">
-        <v>0.45629679199508744</v>
+        <v>0.8241600424703993</v>
       </c>
       <c r="B39" t="n" s="814">
-        <v>-0.2748557234267931</v>
+        <v>-1.4355957758372622</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="813">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="B40" t="n" s="814">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="813">
         <v>0.8546964096694867</v>
       </c>
-      <c r="B40" t="n" s="814">
+      <c r="B41" t="n" s="814">
         <v>-1.2095717428674873</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -10506,74 +10543,53 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="818">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="818">
         <v>68</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s" s="832">
+    <row r="45">
+      <c r="A45" t="s" s="832">
         <v>15</v>
       </c>
-      <c r="B44" t="s" s="832">
+      <c r="B45" t="s" s="832">
         <v>16</v>
       </c>
-      <c r="C44" t="s" s="832">
+      <c r="C45" t="s" s="832">
         <v>17</v>
       </c>
-      <c r="D44" t="s" s="832">
+      <c r="D45" t="s" s="832">
         <v>18</v>
       </c>
-      <c r="E44" t="s" s="832">
+      <c r="E45" t="s" s="832">
         <v>19</v>
       </c>
-      <c r="F44" t="s" s="832">
+      <c r="F45" t="s" s="832">
         <v>20</v>
       </c>
-      <c r="G44" t="s" s="832">
+      <c r="G45" t="s" s="832">
         <v>3</v>
       </c>
-      <c r="H44" t="s" s="832">
+      <c r="H45" t="s" s="832">
         <v>54</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="833">
-        <v>10170.0</v>
-      </c>
-      <c r="B45" t="n" s="834">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C45" t="s" s="835">
-        <v>35</v>
-      </c>
-      <c r="D45" t="s" s="836">
-        <v>36</v>
-      </c>
-      <c r="E45" t="s" s="837">
-        <v>50</v>
-      </c>
-      <c r="F45" t="s" s="838">
-        <v>51</v>
-      </c>
-      <c r="G45" t="n" s="839">
-        <v>0.44355069885067455</v>
-      </c>
-      <c r="H45" t="n" s="840">
-        <v>0.3390917056505436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="833">
-        <v>10176.0</v>
+        <v>10170.0</v>
       </c>
       <c r="B46" t="n" s="834">
-        <v>1.0276949E7</v>
+        <v>1.0260351E7</v>
       </c>
       <c r="C46" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D46" t="s" s="836">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s" s="837">
         <v>50</v>
@@ -10582,50 +10598,50 @@
         <v>51</v>
       </c>
       <c r="G46" t="n" s="839">
-        <v>0.5310873221279265</v>
+        <v>0.44355069885067455</v>
       </c>
       <c r="H46" t="n" s="840">
-        <v>-0.621765728385078</v>
+        <v>0.3390917056505436</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="833">
-        <v>10178.0</v>
+        <v>10176.0</v>
       </c>
       <c r="B47" t="n" s="834">
-        <v>8656201.0</v>
+        <v>1.0276949E7</v>
       </c>
       <c r="C47" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D47" t="s" s="836">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s" s="837">
         <v>50</v>
       </c>
       <c r="F47" t="s" s="838">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" t="n" s="839">
-        <v>0.8974785237700684</v>
+        <v>0.5310873221279265</v>
       </c>
       <c r="H47" t="n" s="840">
-        <v>0.19438092697207512</v>
+        <v>-0.621765728385078</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="833">
-        <v>10183.0</v>
+        <v>10178.0</v>
       </c>
       <c r="B48" t="n" s="834">
-        <v>1.035203E7</v>
+        <v>8656201.0</v>
       </c>
       <c r="C48" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D48" t="s" s="836">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s" s="837">
         <v>50</v>
@@ -10634,50 +10650,50 @@
         <v>52</v>
       </c>
       <c r="G48" t="n" s="839">
-        <v>0.6398767900707459</v>
+        <v>0.8974785237700684</v>
       </c>
       <c r="H48" t="n" s="840">
-        <v>-0.7897528725203661</v>
+        <v>0.19438092697207512</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="833">
-        <v>10186.0</v>
+        <v>10183.0</v>
       </c>
       <c r="B49" t="n" s="834">
-        <v>1.0310551E7</v>
+        <v>1.035203E7</v>
       </c>
       <c r="C49" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D49" t="s" s="836">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s" s="837">
         <v>50</v>
       </c>
       <c r="F49" t="s" s="838">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G49" t="n" s="839">
-        <v>0.7744710186718347</v>
+        <v>0.6398767900707459</v>
       </c>
       <c r="H49" t="n" s="840">
-        <v>-0.11051255328776674</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="833">
-        <v>10195.0</v>
+        <v>10186.0</v>
       </c>
       <c r="B50" t="n" s="834">
-        <v>1.0351971E7</v>
+        <v>1.0310551E7</v>
       </c>
       <c r="C50" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D50" t="s" s="836">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E50" t="s" s="837">
         <v>50</v>
@@ -10686,24 +10702,24 @@
         <v>51</v>
       </c>
       <c r="G50" t="n" s="839">
-        <v>0.4770354022576471</v>
+        <v>0.7744710186718347</v>
       </c>
       <c r="H50" t="n" s="840">
-        <v>0.48203349533710915</v>
+        <v>-0.11051255328776674</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="833">
-        <v>10196.0</v>
+        <v>10195.0</v>
       </c>
       <c r="B51" t="n" s="834">
-        <v>1.0310655E7</v>
+        <v>1.0351971E7</v>
       </c>
       <c r="C51" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D51" t="s" s="836">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s" s="837">
         <v>50</v>
@@ -10712,24 +10728,24 @@
         <v>51</v>
       </c>
       <c r="G51" t="n" s="839">
-        <v>0.7163284176930924</v>
+        <v>0.4770354022576471</v>
       </c>
       <c r="H51" t="n" s="840">
-        <v>-0.7897528725203661</v>
+        <v>0.48203349533710915</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="833">
-        <v>10197.0</v>
+        <v>10196.0</v>
       </c>
       <c r="B52" t="n" s="834">
-        <v>1.0276661E7</v>
+        <v>1.0310655E7</v>
       </c>
       <c r="C52" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D52" t="s" s="836">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E52" t="s" s="837">
         <v>50</v>
@@ -10738,102 +10754,102 @@
         <v>51</v>
       </c>
       <c r="G52" t="n" s="839">
-        <v>0.3397982112727087</v>
+        <v>0.7163284176930924</v>
       </c>
       <c r="H52" t="n" s="840">
-        <v>0.04532479257032093</v>
+        <v>-0.7897528725203661</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="833">
-        <v>10198.0</v>
+        <v>10197.0</v>
       </c>
       <c r="B53" t="n" s="834">
-        <v>1.0310888E7</v>
+        <v>1.0276661E7</v>
       </c>
       <c r="C53" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D53" t="s" s="836">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s" s="837">
         <v>50</v>
       </c>
       <c r="F53" t="s" s="838">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G53" t="n" s="839">
-        <v>0.7204334228506288</v>
+        <v>0.3397982112727087</v>
       </c>
       <c r="H53" t="n" s="840">
-        <v>1.646504990094715</v>
+        <v>0.04532479257032093</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="833">
-        <v>10209.0</v>
+        <v>10198.0</v>
       </c>
       <c r="B54" t="n" s="834">
-        <v>1.0262669E7</v>
+        <v>1.0310888E7</v>
       </c>
       <c r="C54" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D54" t="s" s="836">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s" s="837">
         <v>50</v>
       </c>
       <c r="F54" t="s" s="838">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54" t="n" s="839">
-        <v>0.8241600424703993</v>
+        <v>0.7204334228506288</v>
       </c>
       <c r="H54" t="n" s="840">
-        <v>-1.4355957758372622</v>
+        <v>1.646504990094715</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="833">
-        <v>10221.0</v>
+        <v>10200.0</v>
       </c>
       <c r="B55" t="n" s="834">
-        <v>9082496.0</v>
+        <v>9795272.0</v>
       </c>
       <c r="C55" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D55" t="s" s="836">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s" s="837">
         <v>50</v>
       </c>
       <c r="F55" t="s" s="838">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" t="n" s="839">
-        <v>0.45629679199508744</v>
+        <v>0.17989077620841198</v>
       </c>
       <c r="H55" t="n" s="840">
-        <v>-0.2748557234267931</v>
+        <v>1.4951617995718107</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="833">
-        <v>10240.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B56" t="n" s="834">
-        <v>1.0276654E7</v>
+        <v>1.0262669E7</v>
       </c>
       <c r="C56" t="s" s="835">
         <v>35</v>
       </c>
       <c r="D56" t="s" s="836">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s" s="837">
         <v>50</v>
@@ -10842,9 +10858,61 @@
         <v>51</v>
       </c>
       <c r="G56" t="n" s="839">
+        <v>0.8241600424703993</v>
+      </c>
+      <c r="H56" t="n" s="840">
+        <v>-1.4355957758372622</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="833">
+        <v>10221.0</v>
+      </c>
+      <c r="B57" t="n" s="834">
+        <v>9082496.0</v>
+      </c>
+      <c r="C57" t="s" s="835">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s" s="836">
+        <v>47</v>
+      </c>
+      <c r="E57" t="s" s="837">
+        <v>50</v>
+      </c>
+      <c r="F57" t="s" s="838">
+        <v>51</v>
+      </c>
+      <c r="G57" t="n" s="839">
+        <v>0.45629679199508744</v>
+      </c>
+      <c r="H57" t="n" s="840">
+        <v>-0.2748557234267931</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="833">
+        <v>10240.0</v>
+      </c>
+      <c r="B58" t="n" s="834">
+        <v>1.0276654E7</v>
+      </c>
+      <c r="C58" t="s" s="835">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s" s="836">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s" s="837">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s" s="838">
+        <v>51</v>
+      </c>
+      <c r="G58" t="n" s="839">
         <v>0.8546964096694867</v>
       </c>
-      <c r="H56" t="n" s="840">
+      <c r="H58" t="n" s="840">
         <v>-1.2095717428674873</v>
       </c>
     </row>
